--- a/df_2/df_2_9.xlsx
+++ b/df_2/df_2_9.xlsx
@@ -656,372 +656,372 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5.5193 %</t>
+          <t>5,5193</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.8599 %</t>
+          <t>1,8599</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.5937 %</t>
+          <t>1,5937</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.1616 %</t>
+          <t>1,1616</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.2964 %</t>
+          <t>1,2964</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2605 %</t>
+          <t>1,2605</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.6636 %</t>
+          <t>1,6636</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.8934 %</t>
+          <t>1,8934</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.9096 %</t>
+          <t>1,9096</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2.0117 %</t>
+          <t>2,0117</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2.0827 %</t>
+          <t>2,0827</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.556 %</t>
+          <t>2,556</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.7267 %</t>
+          <t>1,7267</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.9683 %</t>
+          <t>1,9683</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.8434 %</t>
+          <t>1,8434</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2.0319 %</t>
+          <t>2,0319</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1.9962 %</t>
+          <t>1,9962</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2.0731 %</t>
+          <t>2,0731</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.2778 %</t>
+          <t>1,2778</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2.623 %</t>
+          <t>2,623</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1.443 %</t>
+          <t>1,443</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1.3399 %</t>
+          <t>1,3399</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>1.1663 %</t>
+          <t>1,1663</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1.6618 %</t>
+          <t>1,6618</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>1.1915 %</t>
+          <t>1,1915</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1.1076 %</t>
+          <t>1,1076</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>1.0871 %</t>
+          <t>1,0871</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.8602 %</t>
+          <t>0,8602</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>1.3648 %</t>
+          <t>1,3648</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.7415 %</t>
+          <t>0,7415</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>1.0033 %</t>
+          <t>1,0033</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>1.1349 %</t>
+          <t>1,1349</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>1.1608 %</t>
+          <t>1,1608</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.9222 %</t>
+          <t>1,9222</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>2.3334 %</t>
+          <t>2,3334</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>1.8623 %</t>
+          <t>1,8623</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>1.4124 %</t>
+          <t>1,4124</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.7069 %</t>
+          <t>0,7069</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>1.0339 %</t>
+          <t>1,0339</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.7358 %</t>
+          <t>0,7358</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.9751 %</t>
+          <t>0,9751</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>1.2574 %</t>
+          <t>1,2574</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.5936 %</t>
+          <t>0,5936</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.9015 %</t>
+          <t>0,9015</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.6513 %</t>
+          <t>0,6513</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.5575 %</t>
+          <t>0,5575</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.6232 %</t>
+          <t>0,6232</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>1.2935 %</t>
+          <t>1,2935</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>0.8006 %</t>
+          <t>0,8006</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>0.8263 %</t>
+          <t>0,8263</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>1.0353 %</t>
+          <t>1,0353</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>0.8975 %</t>
+          <t>0,8975</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>1.1987 %</t>
+          <t>1,1987</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>1.2333 %</t>
+          <t>1,2333</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.8263 %</t>
+          <t>0,8263</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>1.0892 %</t>
+          <t>1,0892</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.6827 %</t>
+          <t>0,6827</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.7028 %</t>
+          <t>0,7028</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>0.5686 %</t>
+          <t>0,5686</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>1.1477 %</t>
+          <t>1,1477</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>1.1536 %</t>
+          <t>1,1536</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.98 %</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>1.2099 %</t>
+          <t>1,2099</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>0.4509 %</t>
+          <t>0,4509</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.7133 %</t>
+          <t>0,7133</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.5848 %</t>
+          <t>0,5848</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.5637 %</t>
+          <t>0,5637</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.7897 %</t>
+          <t>0,7897</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.9828 %</t>
+          <t>0,9828</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>1.0656 %</t>
+          <t>1,0656</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>0.8524 %</t>
+          <t>0,8524</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>0.418 %</t>
+          <t>0,418</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>0.6843 %</t>
+          <t>0,6843</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t>12.504 %</t>
+          <t>12,504</t>
         </is>
       </c>
     </row>
@@ -1033,227 +1033,227 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7.8761 %</t>
+          <t>7,8761</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.4932 %</t>
+          <t>0,4932</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.3713 %</t>
+          <t>0,3713</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.4711 %</t>
+          <t>0,4711</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.5543 %</t>
+          <t>0,5543</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6646 %</t>
+          <t>0,6646</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.8062 %</t>
+          <t>0,8062</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.5833 %</t>
+          <t>0,5833</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1.0118 %</t>
+          <t>1,0118</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1.4115 %</t>
+          <t>1,4115</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.9044 %</t>
+          <t>0,9044</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.2988 %</t>
+          <t>1,2988</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1.2995 %</t>
+          <t>1,2995</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.4182 %</t>
+          <t>1,4182</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.4746 %</t>
+          <t>1,4746</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.6561 %</t>
+          <t>1,6561</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1.4866 %</t>
+          <t>1,4866</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2.0713 %</t>
+          <t>2,0713</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.6419 %</t>
+          <t>1,6419</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2.3932 %</t>
+          <t>2,3932</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2.1213 %</t>
+          <t>2,1213</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2.8106 %</t>
+          <t>2,8106</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1.9023 %</t>
+          <t>1,9023</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1.9003 %</t>
+          <t>1,9003</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1.4947 %</t>
+          <t>1,4947</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1.7581 %</t>
+          <t>1,7581</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>1.4225 %</t>
+          <t>1,4225</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1.5113 %</t>
+          <t>1,5113</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>1.7597 %</t>
+          <t>1,7597</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2.0108 %</t>
+          <t>2,0108</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1.659 %</t>
+          <t>1,659</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1.201 %</t>
+          <t>1,201</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1.1999 %</t>
+          <t>1,1999</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.1273 %</t>
+          <t>1,1273</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.878 %</t>
+          <t>0,878</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.8021 %</t>
+          <t>0,8021</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.9342 %</t>
+          <t>0,9342</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.8816 %</t>
+          <t>0,8816</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.5828 %</t>
+          <t>0,5828</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.5642 %</t>
+          <t>0,5642</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.6616 %</t>
+          <t>0,6616</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.3713 %</t>
+          <t>0,3713</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.6302 %</t>
+          <t>0,6302</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.4064 %</t>
+          <t>0,4064</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>2.2119 %</t>
+          <t>2,2119</t>
         </is>
       </c>
     </row>
@@ -1265,227 +1265,227 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.6411 %</t>
+          <t>2,6411</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.2449 %</t>
+          <t>3,2449</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.0291 %</t>
+          <t>3,0291</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.8491 %</t>
+          <t>3,8491</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.2238 %</t>
+          <t>4,2238</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.5284 %</t>
+          <t>4,5284</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8.2639 %</t>
+          <t>8,2639</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5.9963 %</t>
+          <t>5,9963</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3.1683 %</t>
+          <t>3,1683</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.0328 %</t>
+          <t>1,0328</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.4675 %</t>
+          <t>0,4675</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.4404 %</t>
+          <t>0,4404</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.4485 %</t>
+          <t>0,4485</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.5033 %</t>
+          <t>0,5033</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.572 %</t>
+          <t>0,572</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.615 %</t>
+          <t>0,615</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.7047 %</t>
+          <t>0,7047</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.7681 %</t>
+          <t>0,7681</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.7398 %</t>
+          <t>0,7398</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.8329 %</t>
+          <t>0,8329</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.9291 %</t>
+          <t>0,9291</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.8934 %</t>
+          <t>0,8934</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.8005 %</t>
+          <t>0,8005</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.5216 %</t>
+          <t>0,5216</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.4126 %</t>
+          <t>0,4126</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.4182 %</t>
+          <t>0,4182</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.5106 %</t>
+          <t>0,5106</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.6345 %</t>
+          <t>0,6345</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.7806 %</t>
+          <t>0,7806</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>1.0629 %</t>
+          <t>1,0629</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1.1509 %</t>
+          <t>1,1509</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.9521 %</t>
+          <t>0,9521</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.8397 %</t>
+          <t>0,8397</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.003 %</t>
+          <t>1,003</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>2.2766 %</t>
+          <t>2,2766</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>4.1174 %</t>
+          <t>4,1174</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>3.8257 %</t>
+          <t>3,8257</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>2.7094 %</t>
+          <t>2,7094</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>2.7899 %</t>
+          <t>2,7899</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1.9387 %</t>
+          <t>1,9387</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1.8104 %</t>
+          <t>1,8104</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>2.219 %</t>
+          <t>2,219</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1.5845 %</t>
+          <t>1,5845</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>1.2231 %</t>
+          <t>1,2231</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>1.0742 %</t>
+          <t>1,0742</t>
         </is>
       </c>
     </row>
